--- a/_site/data.art2.vallejo/hoteles-art2-vallejo-tablas.xlsx
+++ b/_site/data.art2.vallejo/hoteles-art2-vallejo-tablas.xlsx
@@ -6,7 +6,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Tablas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tables" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -592,11 +592,6 @@
         <v>0</v>
       </c>
       <c r="D1" s="12"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="12" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1"/>
@@ -607,15 +602,6 @@
       <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="17" t="n">
-        <v>9.67164179104478</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
@@ -630,15 +616,6 @@
       <c r="D3" s="10" t="n">
         <v>8.58208955223881</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="17" t="n">
-        <v>5.90977875515456</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
@@ -653,15 +630,6 @@
       <c r="D4" s="10" t="n">
         <v>4.85074626865672</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="17" t="n">
-        <v>42.3134328358209</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
@@ -675,15 +643,6 @@
       </c>
       <c r="D5" s="10" t="n">
         <v>38.4328358208955</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="18" t="n">
-        <v>18.4532684032738</v>
       </c>
     </row>
     <row r="6">
@@ -890,6 +849,57 @@
       </c>
       <c r="D20" s="11" t="n">
         <v>268</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="17" t="n">
+        <v>9.67164179104478</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="17" t="n">
+        <v>5.90977875515456</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="17" t="n">
+        <v>42.3134328358209</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="18" t="n">
+        <v>18.4532684032738</v>
       </c>
     </row>
   </sheetData>
